--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ltb-Cd40.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ltb-Cd40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Cd40</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.013823333333334</v>
+        <v>0.1597263333333333</v>
       </c>
       <c r="H2">
-        <v>3.04147</v>
+        <v>0.479179</v>
       </c>
       <c r="I2">
-        <v>0.1808135948909178</v>
+        <v>0.02694221423316326</v>
       </c>
       <c r="J2">
-        <v>0.1808135948909178</v>
+        <v>0.02710802103339717</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.507373</v>
+        <v>3.790397333333333</v>
       </c>
       <c r="N2">
-        <v>10.522119</v>
+        <v>11.371192</v>
       </c>
       <c r="O2">
-        <v>0.1144553684342397</v>
+        <v>0.08379412044543012</v>
       </c>
       <c r="P2">
-        <v>0.1145474722215996</v>
+        <v>0.08393263899063108</v>
       </c>
       <c r="Q2">
-        <v>3.555856586103334</v>
+        <v>0.6054262679297778</v>
       </c>
       <c r="R2">
-        <v>32.00270927493001</v>
+        <v>5.448836411368</v>
       </c>
       <c r="S2">
-        <v>0.02069508662115936</v>
+        <v>0.002257599144520264</v>
       </c>
       <c r="T2">
-        <v>0.02071174023805496</v>
+        <v>0.002275247743146559</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.013823333333334</v>
+        <v>0.1597263333333333</v>
       </c>
       <c r="H3">
-        <v>3.04147</v>
+        <v>0.479179</v>
       </c>
       <c r="I3">
-        <v>0.1808135948909178</v>
+        <v>0.02694221423316326</v>
       </c>
       <c r="J3">
-        <v>0.1808135948909178</v>
+        <v>0.02710802103339717</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,22 +626,22 @@
         <v>1.250265</v>
       </c>
       <c r="O3">
-        <v>0.01359987861907233</v>
+        <v>0.009213181520345948</v>
       </c>
       <c r="P3">
-        <v>0.01361082262585495</v>
+        <v>0.009228411664108861</v>
       </c>
       <c r="Q3">
-        <v>0.4225159432833334</v>
+        <v>0.06656674804833333</v>
       </c>
       <c r="R3">
-        <v>3.80264348955</v>
+        <v>0.5991007324350001</v>
       </c>
       <c r="S3">
-        <v>0.002459042943194598</v>
+        <v>0.0002482235102901813</v>
       </c>
       <c r="T3">
-        <v>0.002461021768403474</v>
+        <v>0.0002501639774955108</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.013823333333334</v>
+        <v>0.1597263333333333</v>
       </c>
       <c r="H4">
-        <v>3.04147</v>
+        <v>0.479179</v>
       </c>
       <c r="I4">
-        <v>0.1808135948909178</v>
+        <v>0.02694221423316326</v>
       </c>
       <c r="J4">
-        <v>0.1808135948909178</v>
+        <v>0.02710802103339717</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.20059333333333</v>
+        <v>27.54740933333333</v>
       </c>
       <c r="N4">
-        <v>54.60178</v>
+        <v>82.64222799999999</v>
       </c>
       <c r="O4">
-        <v>0.5939361498444659</v>
+        <v>0.608989172543274</v>
       </c>
       <c r="P4">
-        <v>0.5944140983199194</v>
+        <v>0.6099958815316303</v>
       </c>
       <c r="Q4">
-        <v>18.45218620184445</v>
+        <v>4.400046685645777</v>
       </c>
       <c r="R4">
-        <v>166.0696758166</v>
+        <v>39.60042017081199</v>
       </c>
       <c r="S4">
-        <v>0.1073917303890487</v>
+        <v>0.01640751675233771</v>
       </c>
       <c r="T4">
-        <v>0.1074781499710681</v>
+        <v>0.01653578118684508</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.013823333333334</v>
+        <v>0.1597263333333333</v>
       </c>
       <c r="H5">
-        <v>3.04147</v>
+        <v>0.479179</v>
       </c>
       <c r="I5">
-        <v>0.1808135948909178</v>
+        <v>0.02694221423316326</v>
       </c>
       <c r="J5">
-        <v>0.1808135948909178</v>
+        <v>0.02710802103339717</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.0739195</v>
+        <v>0.2239595</v>
       </c>
       <c r="N5">
-        <v>0.147839</v>
+        <v>0.447919</v>
       </c>
       <c r="O5">
-        <v>0.002412199559891344</v>
+        <v>0.004951061239111512</v>
       </c>
       <c r="P5">
-        <v>0.00160942712639622</v>
+        <v>0.003306163832608268</v>
       </c>
       <c r="Q5">
-        <v>0.07494131388833335</v>
+        <v>0.03577222975016667</v>
       </c>
       <c r="R5">
-        <v>0.4496478833300001</v>
+        <v>0.214633378501</v>
       </c>
       <c r="S5">
-        <v>0.0004361584740182436</v>
+        <v>0.0001333925525856531</v>
       </c>
       <c r="T5">
-        <v>0.0002910063044386599</v>
+        <v>8.962355871420194E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>1.013823333333334</v>
+        <v>0.1597263333333333</v>
       </c>
       <c r="H6">
-        <v>3.04147</v>
+        <v>0.479179</v>
       </c>
       <c r="I6">
-        <v>0.1808135948909178</v>
+        <v>0.02694221423316326</v>
       </c>
       <c r="J6">
-        <v>0.1808135948909178</v>
+        <v>0.02710802103339717</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.445382666666667</v>
+        <v>13.25612433333333</v>
       </c>
       <c r="N6">
-        <v>25.336148</v>
+        <v>39.768373</v>
       </c>
       <c r="O6">
-        <v>0.2755964035423308</v>
+        <v>0.2930524642518384</v>
       </c>
       <c r="P6">
-        <v>0.2758181797062299</v>
+        <v>0.2935369039810215</v>
       </c>
       <c r="Q6">
-        <v>8.562126006395557</v>
+        <v>2.117352133974111</v>
       </c>
       <c r="R6">
-        <v>77.05913405756002</v>
+        <v>19.056169205767</v>
       </c>
       <c r="S6">
-        <v>0.0498315764634969</v>
+        <v>0.007895482273429448</v>
       </c>
       <c r="T6">
-        <v>0.04987167660895261</v>
+        <v>0.007957204567195817</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>0.010756</v>
       </c>
       <c r="I7">
-        <v>0.0006394378463856988</v>
+        <v>0.0006047645165833729</v>
       </c>
       <c r="J7">
-        <v>0.0006394378463856988</v>
+        <v>0.0006084863364947545</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.507373</v>
+        <v>3.790397333333333</v>
       </c>
       <c r="N7">
-        <v>10.522119</v>
+        <v>11.371192</v>
       </c>
       <c r="O7">
-        <v>0.1144553684342397</v>
+        <v>0.08379412044543012</v>
       </c>
       <c r="P7">
-        <v>0.1145474722215996</v>
+        <v>0.08393263899063108</v>
       </c>
       <c r="Q7">
-        <v>0.01257510132933333</v>
+        <v>0.01358983790577778</v>
       </c>
       <c r="R7">
-        <v>0.113175911964</v>
+        <v>0.122308541152</v>
       </c>
       <c r="S7">
-        <v>7.318709429887194E-05</v>
+        <v>5.067571074370947E-05</v>
       </c>
       <c r="T7">
-        <v>7.324598894630531E-05</v>
+        <v>5.107186401174589E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>0.010756</v>
       </c>
       <c r="I8">
-        <v>0.0006394378463856988</v>
+        <v>0.0006047645165833729</v>
       </c>
       <c r="J8">
-        <v>0.0006394378463856988</v>
+        <v>0.0006084863364947545</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -936,10 +936,10 @@
         <v>1.250265</v>
       </c>
       <c r="O8">
-        <v>0.01359987861907233</v>
+        <v>0.009213181520345948</v>
       </c>
       <c r="P8">
-        <v>0.01361082262585495</v>
+        <v>0.009228411664108861</v>
       </c>
       <c r="Q8">
         <v>0.001494205593333333</v>
@@ -948,10 +948,10 @@
         <v>0.01344785034</v>
       </c>
       <c r="S8">
-        <v>8.696277095286521E-06</v>
+        <v>5.571805268346882E-06</v>
       </c>
       <c r="T8">
-        <v>8.703275107414428E-06</v>
+        <v>5.615362405159061E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>0.010756</v>
       </c>
       <c r="I9">
-        <v>0.0006394378463856988</v>
+        <v>0.0006047645165833729</v>
       </c>
       <c r="J9">
-        <v>0.0006394378463856988</v>
+        <v>0.0006084863364947545</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.20059333333333</v>
+        <v>27.54740933333333</v>
       </c>
       <c r="N9">
-        <v>54.60178</v>
+        <v>82.64222799999999</v>
       </c>
       <c r="O9">
-        <v>0.5939361498444659</v>
+        <v>0.608989172543274</v>
       </c>
       <c r="P9">
-        <v>0.5944140983199194</v>
+        <v>0.6099958815316303</v>
       </c>
       <c r="Q9">
-        <v>0.06525519396444444</v>
+        <v>0.09876664492977777</v>
       </c>
       <c r="R9">
-        <v>0.58729674568</v>
+        <v>0.8888998043679999</v>
       </c>
       <c r="S9">
-        <v>0.000379785252547159</v>
+        <v>0.0003682950425376414</v>
       </c>
       <c r="T9">
-        <v>0.0003800908708909863</v>
+        <v>0.00037117415923007</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1042,10 +1042,10 @@
         <v>0.010756</v>
       </c>
       <c r="I10">
-        <v>0.0006394378463856988</v>
+        <v>0.0006047645165833729</v>
       </c>
       <c r="J10">
-        <v>0.0006394378463856988</v>
+        <v>0.0006084863364947545</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1054,28 +1054,28 @@
         <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.0739195</v>
+        <v>0.2239595</v>
       </c>
       <c r="N10">
-        <v>0.147839</v>
+        <v>0.447919</v>
       </c>
       <c r="O10">
-        <v>0.002412199559891344</v>
+        <v>0.004951061239111512</v>
       </c>
       <c r="P10">
-        <v>0.00160942712639622</v>
+        <v>0.003306163832608268</v>
       </c>
       <c r="Q10">
-        <v>0.0002650260473333333</v>
+        <v>0.0008029694606666667</v>
       </c>
       <c r="R10">
-        <v>0.001590156284</v>
+        <v>0.004817816764</v>
       </c>
       <c r="S10">
-        <v>1.542451691629452E-06</v>
+        <v>2.994226156845949E-06</v>
       </c>
       <c r="T10">
-        <v>1.029128615617523E-06</v>
+        <v>2.011755518355262E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1104,10 +1104,10 @@
         <v>0.010756</v>
       </c>
       <c r="I11">
-        <v>0.0006394378463856988</v>
+        <v>0.0006047645165833729</v>
       </c>
       <c r="J11">
-        <v>0.0006394378463856988</v>
+        <v>0.0006084863364947545</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.445382666666667</v>
+        <v>13.25612433333333</v>
       </c>
       <c r="N11">
-        <v>25.336148</v>
+        <v>39.768373</v>
       </c>
       <c r="O11">
-        <v>0.2755964035423308</v>
+        <v>0.2930524642518384</v>
       </c>
       <c r="P11">
-        <v>0.2758181797062299</v>
+        <v>0.2935369039810215</v>
       </c>
       <c r="Q11">
-        <v>0.03027951198755556</v>
+        <v>0.04752762444311111</v>
       </c>
       <c r="R11">
-        <v>0.272515607888</v>
+        <v>0.427748619988</v>
       </c>
       <c r="S11">
-        <v>0.000176226770752752</v>
+        <v>0.0001772277318768292</v>
       </c>
       <c r="T11">
-        <v>0.0001763685828253753</v>
+        <v>0.0001786131953294243</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.664473</v>
+        <v>2.322236666666667</v>
       </c>
       <c r="H12">
-        <v>4.993418999999999</v>
+        <v>6.96671</v>
       </c>
       <c r="I12">
-        <v>0.2968558099164587</v>
+        <v>0.3917087212092367</v>
       </c>
       <c r="J12">
-        <v>0.2968558099164587</v>
+        <v>0.3941193608517451</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.507373</v>
+        <v>3.790397333333333</v>
       </c>
       <c r="N12">
-        <v>10.522119</v>
+        <v>11.371192</v>
       </c>
       <c r="O12">
-        <v>0.1144553684342397</v>
+        <v>0.08379412044543012</v>
       </c>
       <c r="P12">
-        <v>0.1145474722215996</v>
+        <v>0.08393263899063108</v>
       </c>
       <c r="Q12">
-        <v>5.837927659428999</v>
+        <v>8.802199668702222</v>
       </c>
       <c r="R12">
-        <v>52.54134893486099</v>
+        <v>79.21979701832001</v>
       </c>
       <c r="S12">
-        <v>0.03397674109583291</v>
+        <v>0.03282288776453219</v>
       </c>
       <c r="T12">
-        <v>0.034004082640226</v>
+        <v>0.03307947803358779</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.664473</v>
+        <v>2.322236666666667</v>
       </c>
       <c r="H13">
-        <v>4.993418999999999</v>
+        <v>6.96671</v>
       </c>
       <c r="I13">
-        <v>0.2968558099164587</v>
+        <v>0.3917087212092367</v>
       </c>
       <c r="J13">
-        <v>0.2968558099164587</v>
+        <v>0.3941193608517451</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1246,22 +1246,22 @@
         <v>1.250265</v>
       </c>
       <c r="O13">
-        <v>0.01359987861907233</v>
+        <v>0.009213181520345948</v>
       </c>
       <c r="P13">
-        <v>0.01361082262585495</v>
+        <v>0.009228411664108861</v>
       </c>
       <c r="Q13">
-        <v>0.693677445115</v>
+        <v>0.9678037420166665</v>
       </c>
       <c r="R13">
-        <v>6.243097006034999</v>
+        <v>8.710233678149999</v>
       </c>
       <c r="S13">
-        <v>0.004037202982230245</v>
+        <v>0.003608883551603282</v>
       </c>
       <c r="T13">
-        <v>0.004040451774227431</v>
+        <v>0.003637095706735374</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.664473</v>
+        <v>2.322236666666667</v>
       </c>
       <c r="H14">
-        <v>4.993418999999999</v>
+        <v>6.96671</v>
       </c>
       <c r="I14">
-        <v>0.2968558099164587</v>
+        <v>0.3917087212092367</v>
       </c>
       <c r="J14">
-        <v>0.2968558099164587</v>
+        <v>0.3941193608517451</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>18.20059333333333</v>
+        <v>27.54740933333333</v>
       </c>
       <c r="N14">
-        <v>54.60178</v>
+        <v>82.64222799999999</v>
       </c>
       <c r="O14">
-        <v>0.5939361498444659</v>
+        <v>0.608989172543274</v>
       </c>
       <c r="P14">
-        <v>0.5944140983199194</v>
+        <v>0.6099958815316303</v>
       </c>
       <c r="Q14">
-        <v>30.29439618731333</v>
+        <v>63.97160402554221</v>
       </c>
       <c r="R14">
-        <v>272.6495656858199</v>
+        <v>575.74443622988</v>
       </c>
       <c r="S14">
-        <v>0.1763133968007421</v>
+        <v>0.238546370007197</v>
       </c>
       <c r="T14">
-        <v>0.1764552785825212</v>
+        <v>0.240411186951443</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,13 +1331,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.664473</v>
+        <v>2.322236666666667</v>
       </c>
       <c r="H15">
-        <v>4.993418999999999</v>
+        <v>6.96671</v>
       </c>
       <c r="I15">
-        <v>0.2968558099164587</v>
+        <v>0.3917087212092367</v>
       </c>
       <c r="J15">
-        <v>0.2968558099164587</v>
+        <v>0.3941193608517451</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1364,28 +1364,28 @@
         <v>0.5</v>
       </c>
       <c r="M15">
-        <v>0.0739195</v>
+        <v>0.2239595</v>
       </c>
       <c r="N15">
-        <v>0.147839</v>
+        <v>0.447919</v>
       </c>
       <c r="O15">
-        <v>0.002412199559891344</v>
+        <v>0.004951061239111512</v>
       </c>
       <c r="P15">
-        <v>0.00160942712639622</v>
+        <v>0.003306163832608268</v>
       </c>
       <c r="Q15">
-        <v>0.1230370119235</v>
+        <v>0.5200869627483333</v>
       </c>
       <c r="R15">
-        <v>0.7382220715409999</v>
+        <v>3.12052177649</v>
       </c>
       <c r="S15">
-        <v>0.0007160754540316701</v>
+        <v>0.001939373866600989</v>
       </c>
       <c r="T15">
-        <v>0.0004777677931078684</v>
+        <v>0.001303023176578727</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,14 +1393,14 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
         <v>3</v>
       </c>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.664473</v>
+        <v>2.322236666666667</v>
       </c>
       <c r="H16">
-        <v>4.993418999999999</v>
+        <v>6.96671</v>
       </c>
       <c r="I16">
-        <v>0.2968558099164587</v>
+        <v>0.3917087212092367</v>
       </c>
       <c r="J16">
-        <v>0.2968558099164587</v>
+        <v>0.3941193608517451</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.445382666666667</v>
+        <v>13.25612433333333</v>
       </c>
       <c r="N16">
-        <v>25.336148</v>
+        <v>39.768373</v>
       </c>
       <c r="O16">
-        <v>0.2755964035423308</v>
+        <v>0.2930524642518384</v>
       </c>
       <c r="P16">
-        <v>0.2758181797062299</v>
+        <v>0.2935369039810215</v>
       </c>
       <c r="Q16">
-        <v>14.05711142333467</v>
+        <v>30.78385798475889</v>
       </c>
       <c r="R16">
-        <v>126.514002810012</v>
+        <v>277.05472186283</v>
       </c>
       <c r="S16">
-        <v>0.08181239358362177</v>
+        <v>0.1147912060193032</v>
       </c>
       <c r="T16">
-        <v>0.08187822912637623</v>
+        <v>0.1156885769834003</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G17">
-        <v>2.925126666666667</v>
+        <v>0.108785</v>
       </c>
       <c r="H17">
-        <v>8.775380000000002</v>
+        <v>0.21757</v>
       </c>
       <c r="I17">
-        <v>0.5216911573462379</v>
+        <v>0.01834956524819326</v>
       </c>
       <c r="J17">
-        <v>0.5216911573462378</v>
+        <v>0.01230832765258123</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.507373</v>
+        <v>3.790397333333333</v>
       </c>
       <c r="N17">
-        <v>10.522119</v>
+        <v>11.371192</v>
       </c>
       <c r="O17">
-        <v>0.1144553684342397</v>
+        <v>0.08379412044543012</v>
       </c>
       <c r="P17">
-        <v>0.1145474722215996</v>
+        <v>0.08393263899063108</v>
       </c>
       <c r="Q17">
-        <v>10.25951029224667</v>
+        <v>0.4123383739066667</v>
       </c>
       <c r="R17">
-        <v>92.33559263022002</v>
+        <v>2.47403024344</v>
       </c>
       <c r="S17">
-        <v>0.05971035362294859</v>
+        <v>0.001537585680528385</v>
       </c>
       <c r="T17">
-        <v>0.05975840335437232</v>
+        <v>0.001033070421442502</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G18">
-        <v>2.925126666666667</v>
+        <v>0.108785</v>
       </c>
       <c r="H18">
-        <v>8.775380000000002</v>
+        <v>0.21757</v>
       </c>
       <c r="I18">
-        <v>0.5216911573462379</v>
+        <v>0.01834956524819326</v>
       </c>
       <c r="J18">
-        <v>0.5216911573462378</v>
+        <v>0.01230832765258123</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1556,22 +1556,22 @@
         <v>1.250265</v>
       </c>
       <c r="O18">
-        <v>0.01359987861907233</v>
+        <v>0.009213181520345948</v>
       </c>
       <c r="P18">
-        <v>0.01361082262585495</v>
+        <v>0.009228411664108861</v>
       </c>
       <c r="Q18">
-        <v>1.219061163966667</v>
+        <v>0.045336692675</v>
       </c>
       <c r="R18">
-        <v>10.9715504757</v>
+        <v>0.27202015605</v>
       </c>
       <c r="S18">
-        <v>0.007094936416552199</v>
+        <v>0.0001690578754510363</v>
       </c>
       <c r="T18">
-        <v>0.007100645808116627</v>
+        <v>0.0001135863144747543</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G19">
-        <v>2.925126666666667</v>
+        <v>0.108785</v>
       </c>
       <c r="H19">
-        <v>8.775380000000002</v>
+        <v>0.21757</v>
       </c>
       <c r="I19">
-        <v>0.5216911573462379</v>
+        <v>0.01834956524819326</v>
       </c>
       <c r="J19">
-        <v>0.5216911573462378</v>
+        <v>0.01230832765258123</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>18.20059333333333</v>
+        <v>27.54740933333333</v>
       </c>
       <c r="N19">
-        <v>54.60178</v>
+        <v>82.64222799999999</v>
       </c>
       <c r="O19">
-        <v>0.5939361498444659</v>
+        <v>0.608989172543274</v>
       </c>
       <c r="P19">
-        <v>0.5944140983199194</v>
+        <v>0.6099958815316303</v>
       </c>
       <c r="Q19">
-        <v>53.2390409084889</v>
+        <v>2.996744924326666</v>
       </c>
       <c r="R19">
-        <v>479.1513681764001</v>
+        <v>17.98046954596</v>
       </c>
       <c r="S19">
-        <v>0.309851237402128</v>
+        <v>0.01117468655702603</v>
       </c>
       <c r="T19">
-        <v>0.3101005788954392</v>
+        <v>0.00750802917661643</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G20">
-        <v>2.925126666666667</v>
+        <v>0.108785</v>
       </c>
       <c r="H20">
-        <v>8.775380000000002</v>
+        <v>0.21757</v>
       </c>
       <c r="I20">
-        <v>0.5216911573462379</v>
+        <v>0.01834956524819326</v>
       </c>
       <c r="J20">
-        <v>0.5216911573462378</v>
+        <v>0.01230832765258123</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1674,28 +1674,28 @@
         <v>0.5</v>
       </c>
       <c r="M20">
-        <v>0.0739195</v>
+        <v>0.2239595</v>
       </c>
       <c r="N20">
-        <v>0.147839</v>
+        <v>0.447919</v>
       </c>
       <c r="O20">
-        <v>0.002412199559891344</v>
+        <v>0.004951061239111512</v>
       </c>
       <c r="P20">
-        <v>0.00160942712639622</v>
+        <v>0.003306163832608268</v>
       </c>
       <c r="Q20">
-        <v>0.2162239006366667</v>
+        <v>0.0243634342075</v>
       </c>
       <c r="R20">
-        <v>1.29734340382</v>
+        <v>0.09745373683000001</v>
       </c>
       <c r="S20">
-        <v>0.001258423180149801</v>
+        <v>9.084982125487727E-05</v>
       </c>
       <c r="T20">
-        <v>0.0008396239002340735</v>
+        <v>4.069334772485629E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.5</v>
+      </c>
+      <c r="G21">
+        <v>0.108785</v>
+      </c>
+      <c r="H21">
+        <v>0.21757</v>
+      </c>
+      <c r="I21">
+        <v>0.01834956524819326</v>
+      </c>
+      <c r="J21">
+        <v>0.01230832765258123</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>13.25612433333333</v>
+      </c>
+      <c r="N21">
+        <v>39.768373</v>
+      </c>
+      <c r="O21">
+        <v>0.2930524642518384</v>
+      </c>
+      <c r="P21">
+        <v>0.2935369039810215</v>
+      </c>
+      <c r="Q21">
+        <v>1.442067485601667</v>
+      </c>
+      <c r="R21">
+        <v>8.652404913609999</v>
+      </c>
+      <c r="S21">
+        <v>0.005377385313932931</v>
+      </c>
+      <c r="T21">
+        <v>0.003612948392322689</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>3.334144999999999</v>
+      </c>
+      <c r="H22">
+        <v>10.002435</v>
+      </c>
+      <c r="I22">
+        <v>0.5623947347928234</v>
+      </c>
+      <c r="J22">
+        <v>0.5658558041257817</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.790397333333333</v>
+      </c>
+      <c r="N22">
+        <v>11.371192</v>
+      </c>
+      <c r="O22">
+        <v>0.08379412044543012</v>
+      </c>
+      <c r="P22">
+        <v>0.08393263899063108</v>
+      </c>
+      <c r="Q22">
+        <v>12.63773431694666</v>
+      </c>
+      <c r="R22">
+        <v>113.73960885252</v>
+      </c>
+      <c r="S22">
+        <v>0.04712537214510558</v>
+      </c>
+      <c r="T22">
+        <v>0.04749377092844249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>3.334144999999999</v>
+      </c>
+      <c r="H23">
+        <v>10.002435</v>
+      </c>
+      <c r="I23">
+        <v>0.5623947347928234</v>
+      </c>
+      <c r="J23">
+        <v>0.5658558041257817</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.416755</v>
+      </c>
+      <c r="N23">
+        <v>1.250265</v>
+      </c>
+      <c r="O23">
+        <v>0.009213181520345948</v>
+      </c>
+      <c r="P23">
+        <v>0.009228411664108861</v>
+      </c>
+      <c r="Q23">
+        <v>1.389521599475</v>
+      </c>
+      <c r="R23">
+        <v>12.505694395275</v>
+      </c>
+      <c r="S23">
+        <v>0.005181444777733101</v>
+      </c>
+      <c r="T23">
+        <v>0.005221950302998063</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>3.334144999999999</v>
+      </c>
+      <c r="H24">
+        <v>10.002435</v>
+      </c>
+      <c r="I24">
+        <v>0.5623947347928234</v>
+      </c>
+      <c r="J24">
+        <v>0.5658558041257817</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>27.54740933333333</v>
+      </c>
+      <c r="N24">
+        <v>82.64222799999999</v>
+      </c>
+      <c r="O24">
+        <v>0.608989172543274</v>
+      </c>
+      <c r="P24">
+        <v>0.6099958815316303</v>
+      </c>
+      <c r="Q24">
+        <v>91.84705709168664</v>
+      </c>
+      <c r="R24">
+        <v>826.6235138251798</v>
+      </c>
+      <c r="S24">
+        <v>0.3424923041841756</v>
+      </c>
+      <c r="T24">
+        <v>0.3451697100574957</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>2.925126666666667</v>
-      </c>
-      <c r="H21">
-        <v>8.775380000000002</v>
-      </c>
-      <c r="I21">
-        <v>0.5216911573462379</v>
-      </c>
-      <c r="J21">
-        <v>0.5216911573462378</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>8.445382666666667</v>
-      </c>
-      <c r="N21">
-        <v>25.336148</v>
-      </c>
-      <c r="O21">
-        <v>0.2755964035423308</v>
-      </c>
-      <c r="P21">
-        <v>0.2758181797062299</v>
-      </c>
-      <c r="Q21">
-        <v>24.70381404847112</v>
-      </c>
-      <c r="R21">
-        <v>222.3343264362401</v>
-      </c>
-      <c r="S21">
-        <v>0.1437762067244594</v>
-      </c>
-      <c r="T21">
-        <v>0.1438919053880757</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>3.334144999999999</v>
+      </c>
+      <c r="H25">
+        <v>10.002435</v>
+      </c>
+      <c r="I25">
+        <v>0.5623947347928234</v>
+      </c>
+      <c r="J25">
+        <v>0.5658558041257817</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.5</v>
+      </c>
+      <c r="M25">
+        <v>0.2239595</v>
+      </c>
+      <c r="N25">
+        <v>0.447919</v>
+      </c>
+      <c r="O25">
+        <v>0.004951061239111512</v>
+      </c>
+      <c r="P25">
+        <v>0.003306163832608268</v>
+      </c>
+      <c r="Q25">
+        <v>0.7467134471274999</v>
+      </c>
+      <c r="R25">
+        <v>4.480280682765</v>
+      </c>
+      <c r="S25">
+        <v>0.002784450772513147</v>
+      </c>
+      <c r="T25">
+        <v>0.001870811994072128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3.334144999999999</v>
+      </c>
+      <c r="H26">
+        <v>10.002435</v>
+      </c>
+      <c r="I26">
+        <v>0.5623947347928234</v>
+      </c>
+      <c r="J26">
+        <v>0.5658558041257817</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>13.25612433333333</v>
+      </c>
+      <c r="N26">
+        <v>39.768373</v>
+      </c>
+      <c r="O26">
+        <v>0.2930524642518384</v>
+      </c>
+      <c r="P26">
+        <v>0.2935369039810215</v>
+      </c>
+      <c r="Q26">
+        <v>44.19784066536165</v>
+      </c>
+      <c r="R26">
+        <v>397.7805659882549</v>
+      </c>
+      <c r="S26">
+        <v>0.164811162913296</v>
+      </c>
+      <c r="T26">
+        <v>0.1660995608427733</v>
       </c>
     </row>
   </sheetData>
